--- a/pre-CBL performance.xlsx
+++ b/pre-CBL performance.xlsx
@@ -34,10 +34,10 @@
     <t>Clinic_6</t>
   </si>
   <si>
-    <t>class</t>
+    <t>score</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B174"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -412,10 +412,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
